--- a/Project2/Project2/Book1.xlsx
+++ b/Project2/Project2/Book1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA1B\Desktop\新しいフォルダー\Project2\map情報\map情報\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA1B\Desktop\新しいフォルダー\Project2\Project2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -933,9 +933,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CB60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="AE30" sqref="AE30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="80" width="2.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A1">
@@ -8047,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="AE30">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AF30">
         <v>0</v>

--- a/Project2/Project2/Book1.xlsx
+++ b/Project2/Project2/Book1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA1B\Desktop\新しいフォルダー\Project2\Project2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA1B\Desktop\test\Project2\Project2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -655,7 +655,59 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="良い" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -933,8 +985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CB60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="AE30" sqref="AE30"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Z37" sqref="Z37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1288,7 +1340,7 @@
         <v>0</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ2">
         <v>0</v>
@@ -1440,7 +1492,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -1530,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ3">
         <v>0</v>
@@ -1772,7 +1824,7 @@
         <v>0</v>
       </c>
       <c r="AI4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ4">
         <v>0</v>
@@ -2014,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="AI5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ5">
         <v>0</v>
@@ -2163,7 +2215,7 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -2226,7 +2278,7 @@
         <v>0</v>
       </c>
       <c r="Y6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Z6">
         <v>0</v>
@@ -2256,7 +2308,7 @@
         <v>0</v>
       </c>
       <c r="AI6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ6">
         <v>0</v>
@@ -2483,7 +2535,7 @@
         <v>0</v>
       </c>
       <c r="AD7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AE7">
         <v>0</v>
@@ -2498,7 +2550,7 @@
         <v>0</v>
       </c>
       <c r="AI7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ7">
         <v>0</v>
@@ -2537,100 +2589,100 @@
         <v>1</v>
       </c>
       <c r="AV7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB7">
         <v>1</v>
@@ -2740,7 +2792,7 @@
         <v>0</v>
       </c>
       <c r="AI8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ8">
         <v>0</v>
@@ -2779,100 +2831,100 @@
         <v>1</v>
       </c>
       <c r="AV8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB8">
         <v>1</v>
@@ -2982,7 +3034,7 @@
         <v>0</v>
       </c>
       <c r="AI9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ9">
         <v>0</v>
@@ -3200,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB10">
         <v>0</v>
@@ -3224,7 +3276,7 @@
         <v>0</v>
       </c>
       <c r="AI10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ10">
         <v>0</v>
@@ -3442,7 +3494,7 @@
         <v>0</v>
       </c>
       <c r="AA11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB11">
         <v>0</v>
@@ -3466,7 +3518,7 @@
         <v>0</v>
       </c>
       <c r="AI11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ11">
         <v>0</v>
@@ -3481,7 +3533,7 @@
         <v>0</v>
       </c>
       <c r="AN11">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AO11">
         <v>0</v>
@@ -3502,7 +3554,7 @@
         <v>0</v>
       </c>
       <c r="AU11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AV11">
         <v>0</v>
@@ -3562,7 +3614,7 @@
         <v>0</v>
       </c>
       <c r="BO11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BP11">
         <v>0</v>
@@ -3684,7 +3736,7 @@
         <v>0</v>
       </c>
       <c r="AA12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB12">
         <v>0</v>
@@ -3708,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="AI12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ12">
         <v>0</v>
@@ -3744,7 +3796,7 @@
         <v>0</v>
       </c>
       <c r="AU12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AV12">
         <v>0</v>
@@ -3905,7 +3957,7 @@
         <v>0</v>
       </c>
       <c r="T13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U13">
         <v>0</v>
@@ -3926,7 +3978,7 @@
         <v>0</v>
       </c>
       <c r="AA13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB13">
         <v>0</v>
@@ -3950,7 +4002,7 @@
         <v>0</v>
       </c>
       <c r="AI13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ13">
         <v>0</v>
@@ -3983,10 +4035,10 @@
         <v>0</v>
       </c>
       <c r="AT13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AU13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AV13">
         <v>0</v>
@@ -4022,7 +4074,7 @@
         <v>0</v>
       </c>
       <c r="BG13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BH13">
         <v>0</v>
@@ -4138,7 +4190,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R14">
         <v>0</v>
@@ -4168,7 +4220,7 @@
         <v>0</v>
       </c>
       <c r="AA14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB14">
         <v>0</v>
@@ -4192,7 +4244,7 @@
         <v>0</v>
       </c>
       <c r="AI14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ14">
         <v>0</v>
@@ -4228,7 +4280,7 @@
         <v>0</v>
       </c>
       <c r="AU14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AV14">
         <v>0</v>
@@ -4410,7 +4462,7 @@
         <v>0</v>
       </c>
       <c r="AA15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB15">
         <v>0</v>
@@ -4434,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="AI15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ15">
         <v>0</v>
@@ -4461,7 +4513,7 @@
         <v>0</v>
       </c>
       <c r="AR15">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AS15">
         <v>0</v>
@@ -4470,7 +4522,7 @@
         <v>0</v>
       </c>
       <c r="AU15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AV15">
         <v>0</v>
@@ -4604,79 +4656,79 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA16">
         <v>1</v>
       </c>
       <c r="AB16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ16">
         <v>0</v>
@@ -4712,7 +4764,7 @@
         <v>0</v>
       </c>
       <c r="AU16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AV16">
         <v>0</v>
@@ -4781,7 +4833,7 @@
         <v>0</v>
       </c>
       <c r="BR16">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BS16">
         <v>0</v>
@@ -4879,22 +4931,22 @@
         <v>0</v>
       </c>
       <c r="V17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB17">
         <v>0</v>
@@ -4918,7 +4970,7 @@
         <v>0</v>
       </c>
       <c r="AI17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ17">
         <v>0</v>
@@ -4954,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="AU17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AV17">
         <v>0</v>
@@ -5160,7 +5212,7 @@
         <v>0</v>
       </c>
       <c r="AI18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ18">
         <v>0</v>
@@ -5187,7 +5239,7 @@
         <v>0</v>
       </c>
       <c r="AR18">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AS18">
         <v>0</v>
@@ -5196,7 +5248,7 @@
         <v>0</v>
       </c>
       <c r="AU18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AV18">
         <v>0</v>
@@ -5402,7 +5454,7 @@
         <v>0</v>
       </c>
       <c r="AI19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ19">
         <v>0</v>
@@ -5438,7 +5490,7 @@
         <v>0</v>
       </c>
       <c r="AU19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AV19">
         <v>0</v>
@@ -5644,7 +5696,7 @@
         <v>0</v>
       </c>
       <c r="AI20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ20">
         <v>0</v>
@@ -5677,10 +5729,10 @@
         <v>0</v>
       </c>
       <c r="AT20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AU20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AV20">
         <v>0</v>
@@ -5850,7 +5902,7 @@
         <v>0</v>
       </c>
       <c r="W21">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X21">
         <v>0</v>
@@ -5886,7 +5938,7 @@
         <v>0</v>
       </c>
       <c r="AI21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ21">
         <v>0</v>
@@ -5922,7 +5974,7 @@
         <v>0</v>
       </c>
       <c r="AU21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AV21">
         <v>0</v>
@@ -5952,7 +6004,7 @@
         <v>0</v>
       </c>
       <c r="BE21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BF21">
         <v>0</v>
@@ -6074,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R22">
         <v>0</v>
@@ -6128,7 +6180,7 @@
         <v>0</v>
       </c>
       <c r="AI22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ22">
         <v>0</v>
@@ -6164,7 +6216,7 @@
         <v>0</v>
       </c>
       <c r="AU22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AV22">
         <v>0</v>
@@ -6370,7 +6422,7 @@
         <v>0</v>
       </c>
       <c r="AI23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ23">
         <v>0</v>
@@ -6612,10 +6664,10 @@
         <v>0</v>
       </c>
       <c r="AI24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK24">
         <v>0</v>
@@ -6648,7 +6700,7 @@
         <v>0</v>
       </c>
       <c r="AU24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AV24">
         <v>0</v>
@@ -6761,7 +6813,7 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -6854,10 +6906,10 @@
         <v>0</v>
       </c>
       <c r="AI25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK25">
         <v>0</v>
@@ -6890,7 +6942,7 @@
         <v>0</v>
       </c>
       <c r="AU25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AV25">
         <v>0</v>
@@ -6914,7 +6966,7 @@
         <v>0</v>
       </c>
       <c r="BC25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BD25">
         <v>0</v>
@@ -7096,10 +7148,10 @@
         <v>0</v>
       </c>
       <c r="AI26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK26">
         <v>0</v>
@@ -7132,7 +7184,7 @@
         <v>0</v>
       </c>
       <c r="AU26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AV26">
         <v>0</v>
@@ -7248,7 +7300,7 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -7341,7 +7393,7 @@
         <v>0</v>
       </c>
       <c r="AJ27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK27">
         <v>0</v>
@@ -7374,103 +7426,103 @@
         <v>0</v>
       </c>
       <c r="AU27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AV27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB27">
         <v>1</v>
@@ -7583,7 +7635,7 @@
         <v>0</v>
       </c>
       <c r="AJ28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK28">
         <v>0</v>
@@ -7616,7 +7668,7 @@
         <v>0</v>
       </c>
       <c r="AU28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AV28">
         <v>0</v>
@@ -7715,7 +7767,7 @@
         <v>0</v>
       </c>
       <c r="CB28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:80" x14ac:dyDescent="0.4">
@@ -7825,7 +7877,7 @@
         <v>0</v>
       </c>
       <c r="AJ29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK29">
         <v>0</v>
@@ -7858,7 +7910,7 @@
         <v>0</v>
       </c>
       <c r="AU29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AV29">
         <v>0</v>
@@ -7912,13 +7964,13 @@
         <v>0</v>
       </c>
       <c r="BM29">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BN29">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BO29">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BP29">
         <v>0</v>
@@ -7957,7 +8009,7 @@
         <v>0</v>
       </c>
       <c r="CB29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:80" x14ac:dyDescent="0.4">
@@ -8010,7 +8062,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R30">
         <v>0</v>
@@ -8052,7 +8104,7 @@
         <v>0</v>
       </c>
       <c r="AE30">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AF30">
         <v>0</v>
@@ -8067,7 +8119,7 @@
         <v>0</v>
       </c>
       <c r="AJ30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK30">
         <v>0</v>
@@ -8100,7 +8152,7 @@
         <v>0</v>
       </c>
       <c r="AU30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AV30">
         <v>0</v>
@@ -8154,13 +8206,13 @@
         <v>0</v>
       </c>
       <c r="BM30">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BN30">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BO30">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BP30">
         <v>0</v>
@@ -8199,7 +8251,7 @@
         <v>0</v>
       </c>
       <c r="CB30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:80" x14ac:dyDescent="0.4">
@@ -8267,22 +8319,22 @@
         <v>0</v>
       </c>
       <c r="V31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB31">
         <v>0</v>
@@ -8309,7 +8361,7 @@
         <v>0</v>
       </c>
       <c r="AJ31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK31">
         <v>0</v>
@@ -8342,7 +8394,7 @@
         <v>0</v>
       </c>
       <c r="AU31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AV31">
         <v>0</v>
@@ -8396,13 +8448,13 @@
         <v>0</v>
       </c>
       <c r="BM31">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BN31">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BO31">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BP31">
         <v>0</v>
@@ -8441,7 +8493,7 @@
         <v>0</v>
       </c>
       <c r="CB31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:80" x14ac:dyDescent="0.4">
@@ -8449,142 +8501,142 @@
         <v>1</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ32">
         <v>1</v>
       </c>
       <c r="AK32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AV32">
         <v>0</v>
@@ -8683,12 +8735,12 @@
         <v>0</v>
       </c>
       <c r="CB32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -8793,7 +8845,7 @@
         <v>0</v>
       </c>
       <c r="AJ33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK33">
         <v>0</v>
@@ -8826,7 +8878,7 @@
         <v>0</v>
       </c>
       <c r="AU33">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AV33">
         <v>0</v>
@@ -8925,12 +8977,12 @@
         <v>0</v>
       </c>
       <c r="CB33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -9035,7 +9087,7 @@
         <v>0</v>
       </c>
       <c r="AJ34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK34">
         <v>0</v>
@@ -9068,7 +9120,7 @@
         <v>0</v>
       </c>
       <c r="AU34">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AV34">
         <v>0</v>
@@ -9092,7 +9144,7 @@
         <v>0</v>
       </c>
       <c r="BC34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BD34">
         <v>0</v>
@@ -9167,12 +9219,12 @@
         <v>0</v>
       </c>
       <c r="CB34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -9277,7 +9329,7 @@
         <v>0</v>
       </c>
       <c r="AJ35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK35">
         <v>0</v>
@@ -9310,7 +9362,7 @@
         <v>0</v>
       </c>
       <c r="AU35">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AV35">
         <v>0</v>
@@ -9409,12 +9461,12 @@
         <v>0</v>
       </c>
       <c r="CB35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -9552,7 +9604,7 @@
         <v>0</v>
       </c>
       <c r="AU36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV36">
         <v>0</v>
@@ -9651,12 +9703,12 @@
         <v>0</v>
       </c>
       <c r="CB36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -9794,7 +9846,7 @@
         <v>0</v>
       </c>
       <c r="AU37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV37">
         <v>0</v>
@@ -9893,12 +9945,12 @@
         <v>0</v>
       </c>
       <c r="CB37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -10036,7 +10088,7 @@
         <v>0</v>
       </c>
       <c r="AU38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV38">
         <v>0</v>
@@ -10135,12 +10187,12 @@
         <v>0</v>
       </c>
       <c r="CB38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -10188,7 +10240,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R39">
         <v>0</v>
@@ -10278,7 +10330,7 @@
         <v>0</v>
       </c>
       <c r="AU39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV39">
         <v>0</v>
@@ -10377,12 +10429,12 @@
         <v>0</v>
       </c>
       <c r="CB39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -10520,7 +10572,7 @@
         <v>0</v>
       </c>
       <c r="AU40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV40">
         <v>0</v>
@@ -10619,12 +10671,12 @@
         <v>0</v>
       </c>
       <c r="CB40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -10762,7 +10814,7 @@
         <v>0</v>
       </c>
       <c r="AU41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV41">
         <v>0</v>
@@ -10861,12 +10913,12 @@
         <v>0</v>
       </c>
       <c r="CB41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -11004,7 +11056,7 @@
         <v>0</v>
       </c>
       <c r="AU42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV42">
         <v>0</v>
@@ -11103,12 +11155,12 @@
         <v>0</v>
       </c>
       <c r="CB42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -11246,7 +11298,7 @@
         <v>0</v>
       </c>
       <c r="AU43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV43">
         <v>0</v>
@@ -11345,12 +11397,12 @@
         <v>0</v>
       </c>
       <c r="CB43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -11413,22 +11465,22 @@
         <v>0</v>
       </c>
       <c r="V44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB44">
         <v>0</v>
@@ -11488,7 +11540,7 @@
         <v>0</v>
       </c>
       <c r="AU44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV44">
         <v>0</v>
@@ -11587,12 +11639,12 @@
         <v>0</v>
       </c>
       <c r="CB44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -11670,7 +11722,7 @@
         <v>0</v>
       </c>
       <c r="AA45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB45">
         <v>0</v>
@@ -11730,7 +11782,7 @@
         <v>0</v>
       </c>
       <c r="AU45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV45">
         <v>0</v>
@@ -11829,12 +11881,12 @@
         <v>0</v>
       </c>
       <c r="CB45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -11912,7 +11964,7 @@
         <v>0</v>
       </c>
       <c r="AA46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB46">
         <v>0</v>
@@ -11972,7 +12024,7 @@
         <v>0</v>
       </c>
       <c r="AU46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV46">
         <v>0</v>
@@ -12071,12 +12123,12 @@
         <v>0</v>
       </c>
       <c r="CB46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -12124,7 +12176,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R47">
         <v>0</v>
@@ -12154,7 +12206,7 @@
         <v>0</v>
       </c>
       <c r="AA47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB47">
         <v>0</v>
@@ -12214,7 +12266,7 @@
         <v>0</v>
       </c>
       <c r="AU47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV47">
         <v>0</v>
@@ -12313,12 +12365,12 @@
         <v>0</v>
       </c>
       <c r="CB47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -12396,7 +12448,7 @@
         <v>0</v>
       </c>
       <c r="AA48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB48">
         <v>0</v>
@@ -12456,7 +12508,7 @@
         <v>0</v>
       </c>
       <c r="AU48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV48">
         <v>0</v>
@@ -12516,7 +12568,7 @@
         <v>0</v>
       </c>
       <c r="BO48">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BP48">
         <v>0</v>
@@ -12555,12 +12607,12 @@
         <v>0</v>
       </c>
       <c r="CB48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -12638,7 +12690,7 @@
         <v>0</v>
       </c>
       <c r="AA49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB49">
         <v>0</v>
@@ -12698,7 +12750,7 @@
         <v>0</v>
       </c>
       <c r="AU49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV49">
         <v>0</v>
@@ -12797,12 +12849,12 @@
         <v>0</v>
       </c>
       <c r="CB49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -12880,7 +12932,7 @@
         <v>0</v>
       </c>
       <c r="AA50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB50">
         <v>0</v>
@@ -12919,7 +12971,7 @@
         <v>0</v>
       </c>
       <c r="AN50">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AO50">
         <v>0</v>
@@ -12940,7 +12992,7 @@
         <v>0</v>
       </c>
       <c r="AU50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV50">
         <v>0</v>
@@ -13039,12 +13091,12 @@
         <v>0</v>
       </c>
       <c r="CB50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -13122,7 +13174,7 @@
         <v>0</v>
       </c>
       <c r="AA51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB51">
         <v>0</v>
@@ -13182,111 +13234,111 @@
         <v>0</v>
       </c>
       <c r="AU51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -13424,111 +13476,111 @@
         <v>0</v>
       </c>
       <c r="AU52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -13666,111 +13718,111 @@
         <v>0</v>
       </c>
       <c r="AU53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -13908,111 +13960,111 @@
         <v>0</v>
       </c>
       <c r="AU54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -14084,7 +14136,7 @@
         <v>0</v>
       </c>
       <c r="Y55">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Z55">
         <v>0</v>
@@ -14150,111 +14202,111 @@
         <v>0</v>
       </c>
       <c r="AU55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -14392,111 +14444,111 @@
         <v>0</v>
       </c>
       <c r="AU56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -14634,111 +14686,111 @@
         <v>0</v>
       </c>
       <c r="AU57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -14876,111 +14928,111 @@
         <v>0</v>
       </c>
       <c r="AU58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -15118,352 +15170,375 @@
         <v>0</v>
       </c>
       <c r="AU59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18"/>
+  <conditionalFormatting sqref="A1:CB60">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:CB60">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Project2/Project2/Book1.xlsx
+++ b/Project2/Project2/Book1.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA1B\Desktop\test\Project2\Project2\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13905" windowHeight="8595"/>
   </bookViews>
@@ -19,8 +14,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -655,7 +650,58 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="良い" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="12">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -975,7 +1021,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -985,16 +1031,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CB60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Z37" sqref="Z37"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="CC21" sqref="CC21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="80" width="2.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:80" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:80">
       <c r="A1">
         <v>1</v>
       </c>
@@ -1137,106 +1183,106 @@
         <v>1</v>
       </c>
       <c r="AV1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:80" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:80">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1379,106 +1425,106 @@
         <v>1</v>
       </c>
       <c r="AV2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:80" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:80">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1621,106 +1667,106 @@
         <v>1</v>
       </c>
       <c r="AV3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:80" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:80">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1863,106 +1909,106 @@
         <v>1</v>
       </c>
       <c r="AV4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:80" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:80">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2105,106 +2151,106 @@
         <v>1</v>
       </c>
       <c r="AV5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:80" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:80">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2446,7 +2492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:80" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:80">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2688,7 +2734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:80" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:80">
       <c r="A8">
         <v>1</v>
       </c>
@@ -2930,7 +2976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:80" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:80">
       <c r="A9">
         <v>1</v>
       </c>
@@ -3172,7 +3218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:80" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:80">
       <c r="A10">
         <v>1</v>
       </c>
@@ -3414,7 +3460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:80" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:80">
       <c r="A11">
         <v>1</v>
       </c>
@@ -3656,7 +3702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:80" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:80">
       <c r="A12">
         <v>1</v>
       </c>
@@ -3898,7 +3944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:80" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:80">
       <c r="A13">
         <v>1</v>
       </c>
@@ -4140,7 +4186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:80" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:80">
       <c r="A14">
         <v>1</v>
       </c>
@@ -4382,7 +4428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:80" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:80">
       <c r="A15">
         <v>1</v>
       </c>
@@ -4624,7 +4670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:80" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:80">
       <c r="A16">
         <v>1</v>
       </c>
@@ -4866,7 +4912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:80" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:80">
       <c r="A17">
         <v>1</v>
       </c>
@@ -5108,7 +5154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:80" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:80">
       <c r="A18">
         <v>1</v>
       </c>
@@ -5350,7 +5396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:80" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:80">
       <c r="A19">
         <v>1</v>
       </c>
@@ -5592,7 +5638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:80" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:80">
       <c r="A20">
         <v>1</v>
       </c>
@@ -5834,7 +5880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:80" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:80">
       <c r="A21">
         <v>1</v>
       </c>
@@ -6076,7 +6122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:80" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:80">
       <c r="A22">
         <v>1</v>
       </c>
@@ -6318,7 +6364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:80" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:80">
       <c r="A23">
         <v>1</v>
       </c>
@@ -6560,7 +6606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:80" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:80">
       <c r="A24">
         <v>1</v>
       </c>
@@ -6802,7 +6848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:80" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:80">
       <c r="A25">
         <v>1</v>
       </c>
@@ -7044,7 +7090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:80" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:80">
       <c r="A26">
         <v>1</v>
       </c>
@@ -7286,7 +7332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:80" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:80">
       <c r="A27">
         <v>1</v>
       </c>
@@ -7528,7 +7574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:80" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:80">
       <c r="A28">
         <v>1</v>
       </c>
@@ -7770,7 +7816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:80" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:80">
       <c r="A29">
         <v>1</v>
       </c>
@@ -8012,7 +8058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:80" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:80">
       <c r="A30">
         <v>1</v>
       </c>
@@ -8254,7 +8300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:80" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:80">
       <c r="A31">
         <v>1</v>
       </c>
@@ -8496,7 +8542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:80" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:80">
       <c r="A32">
         <v>1</v>
       </c>
@@ -8738,7 +8784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:80" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:80">
       <c r="A33">
         <v>0</v>
       </c>
@@ -8980,7 +9026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:80" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:80">
       <c r="A34">
         <v>0</v>
       </c>
@@ -9222,7 +9268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:80" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:80">
       <c r="A35">
         <v>0</v>
       </c>
@@ -9464,7 +9510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:80" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:80">
       <c r="A36">
         <v>0</v>
       </c>
@@ -9706,7 +9752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:80" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:80">
       <c r="A37">
         <v>0</v>
       </c>
@@ -9948,7 +9994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:80" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:80">
       <c r="A38">
         <v>0</v>
       </c>
@@ -10190,7 +10236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:80" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:80">
       <c r="A39">
         <v>0</v>
       </c>
@@ -10432,7 +10478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:80" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:80">
       <c r="A40">
         <v>0</v>
       </c>
@@ -10674,7 +10720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:80" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:80">
       <c r="A41">
         <v>0</v>
       </c>
@@ -10916,7 +10962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:80" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:80">
       <c r="A42">
         <v>0</v>
       </c>
@@ -11158,7 +11204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:80" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:80">
       <c r="A43">
         <v>0</v>
       </c>
@@ -11400,7 +11446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:80" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:80">
       <c r="A44">
         <v>0</v>
       </c>
@@ -11642,7 +11688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:80" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:80">
       <c r="A45">
         <v>0</v>
       </c>
@@ -11884,7 +11930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:80" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:80">
       <c r="A46">
         <v>0</v>
       </c>
@@ -12126,7 +12172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:80" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:80">
       <c r="A47">
         <v>0</v>
       </c>
@@ -12368,7 +12414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:80" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:80">
       <c r="A48">
         <v>0</v>
       </c>
@@ -12610,7 +12656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:80" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:80">
       <c r="A49">
         <v>0</v>
       </c>
@@ -12852,7 +12898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:80" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:80">
       <c r="A50">
         <v>0</v>
       </c>
@@ -13094,7 +13140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:80" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:80">
       <c r="A51">
         <v>0</v>
       </c>
@@ -13336,7 +13382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:80" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:80">
       <c r="A52">
         <v>0</v>
       </c>
@@ -13578,7 +13624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:80" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:80">
       <c r="A53">
         <v>0</v>
       </c>
@@ -13820,7 +13866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:80" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:80">
       <c r="A54">
         <v>0</v>
       </c>
@@ -14062,7 +14108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:80" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:80">
       <c r="A55">
         <v>0</v>
       </c>
@@ -14304,7 +14350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:80" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:80">
       <c r="A56">
         <v>0</v>
       </c>
@@ -14546,7 +14592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:80" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:80">
       <c r="A57">
         <v>0</v>
       </c>
@@ -14788,7 +14834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:80" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:80">
       <c r="A58">
         <v>0</v>
       </c>
@@ -15030,7 +15076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:80" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:80">
       <c r="A59">
         <v>0</v>
       </c>
@@ -15272,7 +15318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:80" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:80">
       <c r="A60">
         <v>0</v>
       </c>
@@ -15517,24 +15563,24 @@
   </sheetData>
   <phoneticPr fontId="18"/>
   <conditionalFormatting sqref="A1:CB60">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:CB60">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
